--- a/doc/數據庫重構問題.xlsx
+++ b/doc/數據庫重構問題.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Terminal表的gift_amount, gift_quota应该移到Staff表中(要先修改手机终端的登录形式)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>member表id最好也改一下，但不清楚關聯關係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像supplier表，因為supplier_id是全庫唯一的，索引就是一個supplier_id就好了，不用加上restaurant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建議刪除所有外鍵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,50 +117,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -442,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="86.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -501,6 +466,16 @@
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
